--- a/biology/Histoire de la zoologie et de la botanique/Louis_Crié/Louis_Crié.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Crié/Louis_Crié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Cri%C3%A9</t>
+          <t>Louis_Crié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Crié, né le 1er août 1850 à Conlie (Sarthe) et mort le 31 août 1912 à Rennes, est un botaniste, géologue et paléobotaniste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Cri%C3%A9</t>
+          <t>Louis_Crié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Origine
-Il est le fils de François Crié, pharmacien à Conlie, et de Olympe Grassin.  Son père était très versé dans l'étude des plantes[1], Louis se familiarise de bonne heure avec les plantes de sa région, particulièrement riche en espèces intéressantes.
-Études
-Il est élève du lycée du Mans en 1868. Interne des hôpitaux de Paris en 1872, il est préparateur à la Faculté des Sciences de Caen en 1874. Il prend le grade de docteur en médecine (1877) et docteur ès sciences (1878).
-Naturaliste
-Il est alors appelé à la chaire de botanique de la Faculté des sciences de Rennes. En raison de ses compétences, il est chargé d'études originales concernant les flores fossiles par diverses institutions et sociétés savantes françaises et étrangères. C'est ainsi qu'il étudie la flore fossile des îles de la Sonde, de la Malaisie et de la Mélanésie, celle des Philippines, celle des colonies portugaises d'Afrique, celle de la Nouvelle-Zélande et de la Polynésie, celle de l'Australie et de la Tasmanie et celle des colonies françaises. La flore du XIXe siècle et la géographie botanique ont fait, pour lui, l'objet de nombreux travaux, ainsi que l'anatomie et la physiologie végétales. 
-Il s'est aussi spécialisé dans l'étude des altérations mycotiques des différentes essences de bois indigènes et exotiques. Les ministères de la Guerre, de l'Agriculture et des Travaux publics lui confièrent, sur ce point, plusieurs missions et le chargèrent de nombreuses conférences dans les arsenaux militaires, à l'école professionnelle des télégraphes et à l'école des Ponts et Chaussées.
-Paléontologue
-Il étudie aussi longuement la paléontologie végétale de l'Ouest de la France. « A l'étranger, a dit le savant autrichien Staube, on connait surtout ses études relatives aux migrations des plantes pendant les diverses époques géologiques et ses recherches sur la végétation fossile de la France occidentale, sur les affinités des flores secondaires et tertiaires de l'Angleterre, de la Saxe, du Portugal, de la Dalmatie et de l'Amérique du Nord. Avec Gaston de Saporta, il est, en France, le représentant le plus autorisé de la paléontologie végétale.
-Histoire
-Il a fait œuvre d'historien scientifique en rappelant Pierre Belon. C'est grâce à son initiative qu'une statue de Pierre Belon a été élevée au Mans, le 9 octobre 1887, par souscription internationale. 
-Postérité
- Chevalier de la Légion d'honneur. Il est décoré de la Légion d'honneur en 1901 au titre du ministre de la guerre : Professeur à la faculté des sciences de Rennes ; 31 ans de services ; études sur la conservation des bois servant à la fabrication du matériel d'artillerie et des armes portatives.</t>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de François Crié, pharmacien à Conlie, et de Olympe Grassin.  Son père était très versé dans l'étude des plantes, Louis se familiarise de bonne heure avec les plantes de sa région, particulièrement riche en espèces intéressantes.
+</t>
         </is>
       </c>
     </row>
@@ -535,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Cri%C3%A9</t>
+          <t>Louis_Crié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,13 +557,203 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est élève du lycée du Mans en 1868. Interne des hôpitaux de Paris en 1872, il est préparateur à la Faculté des Sciences de Caen en 1874. Il prend le grade de docteur en médecine (1877) et docteur ès sciences (1878).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Naturaliste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est alors appelé à la chaire de botanique de la Faculté des sciences de Rennes. En raison de ses compétences, il est chargé d'études originales concernant les flores fossiles par diverses institutions et sociétés savantes françaises et étrangères. C'est ainsi qu'il étudie la flore fossile des îles de la Sonde, de la Malaisie et de la Mélanésie, celle des Philippines, celle des colonies portugaises d'Afrique, celle de la Nouvelle-Zélande et de la Polynésie, celle de l'Australie et de la Tasmanie et celle des colonies françaises. La flore du XIXe siècle et la géographie botanique ont fait, pour lui, l'objet de nombreux travaux, ainsi que l'anatomie et la physiologie végétales. 
+Il s'est aussi spécialisé dans l'étude des altérations mycotiques des différentes essences de bois indigènes et exotiques. Les ministères de la Guerre, de l'Agriculture et des Travaux publics lui confièrent, sur ce point, plusieurs missions et le chargèrent de nombreuses conférences dans les arsenaux militaires, à l'école professionnelle des télégraphes et à l'école des Ponts et Chaussées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Paléontologue</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie aussi longuement la paléontologie végétale de l'Ouest de la France. « A l'étranger, a dit le savant autrichien Staube, on connait surtout ses études relatives aux migrations des plantes pendant les diverses époques géologiques et ses recherches sur la végétation fossile de la France occidentale, sur les affinités des flores secondaires et tertiaires de l'Angleterre, de la Saxe, du Portugal, de la Dalmatie et de l'Amérique du Nord. Avec Gaston de Saporta, il est, en France, le représentant le plus autorisé de la paléontologie végétale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a fait œuvre d'historien scientifique en rappelant Pierre Belon. C'est grâce à son initiative qu'une statue de Pierre Belon a été élevée au Mans, le 9 octobre 1887, par souscription internationale. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur. Il est décoré de la Légion d'honneur en 1901 au titre du ministre de la guerre : Professeur à la faculté des sciences de Rennes ; 31 ans de services ; études sur la conservation des bois servant à la fabrication du matériel d'artillerie et des armes portatives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Flore et géographie botanique
-Note sur les orchidées des cantons de Conlie et de Sillé-le-Guillaume (Sarthe), 1868.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Flore et géographie botanique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Note sur les orchidées des cantons de Conlie et de Sillé-le-Guillaume (Sarthe), 1868.
 Observations sur la flore de la Champagne, du Maine et de ses environs. Première partie. Végétaux inembryonés, vasculaires et cellulaires acrogènes. I. Lycopodiacées-Mousses, Le Mans : impr. de E. Monnoyer , 1869
 Observations sur la flore cryptogamique de la Sarthe et de la Mayenne. Caen, 1871.
 Flore comparée des terrains jurassiques de le Champagne, du Maine et des termins siluriens de la Charnie (Sarthe et Mayenne). — Caen, 1872
@@ -573,9 +770,43 @@
 Contribution à la flore cryptogamique de la presquîle de Banks (Nouvelle-Zélande). - Comptes rendus des séances de l'Académie des Sciences. — Paris 1881.
 Sur le polymorphisme du Narcisse des îles Glénans (Narcissus reflexus), (Finistère). — Comptes rendus des séances de l'Académie des Sciences. — Paris, 1884.
 Le centre de végétation armoricain. — Comptes rendus des séances de l'Académie des Sciences. — Paris, 1885.
-La végétation des côtes et des îles bretonnes. — Avec une planche du centre de végétation armoricain. — Annales des sciences naturelles de Bordeaux et du Sud-Ouest. - Bordeaux, 1887.
-Paléontologie végétale
-Coup d’œil sur la flore tertiaire des environs du Mans.- Caen, 1874.
+La végétation des côtes et des îles bretonnes. — Avec une planche du centre de végétation armoricain. — Annales des sciences naturelles de Bordeaux et du Sud-Ouest. - Bordeaux, 1887.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Paléontologie végétale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Coup d’œil sur la flore tertiaire des environs du Mans.- Caen, 1874.
 Note sur les Morinda de la flore éocène du Mans et d'Angers. — Caen, 1875.
 Note sur le Carpolithes Decaisneana des grès éocènes de la Sarthe. — Caen, 1875.
 Considérations sur la flore tertiaire de Fyé (Sarthe). — Caen, 1875.
@@ -601,9 +832,43 @@
 Paléontologie des colonies françaises et des pays de protectorat. — Exposition paléophytique de M. le professeur L. Crié, Palais central des Colonies. — In-8° de 32 pages. - Rennes. 1889.
 Recherches sur les flores fossiles des îles de l'Océan Pacifiques. — In-4. — Iéna, 1889.
 Recherches sur les végétaux fossiles de l'Ile d'Aix (Charente-Inférieure) — La Rochelle, 1890.
-Recherches sur les Palmiers silicifiés des terrains crétacés de l'Anjou. — Angers, 1892.
-Organographie, Anatomie et Physiologie végétale
-Recherches sur les Sphéries foliicoles du groupe des Dépazées. — Caen, 1873.
+Recherches sur les Palmiers silicifiés des terrains crétacés de l'Anjou. — Angers, 1892.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Organographie, Anatomie et Physiologie végétale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Recherches sur les Sphéries foliicoles du groupe des Dépazées. — Caen, 1873.
 Recherches sur la durée de la faculté germinative dans les stylospores Pestalozziennes. --- Caen, 1874.
 Recherches sur la molilité des spermaties dépazéenes. - Caen, 1874.
 Recherches sur le mode de dissémination des spores chez le Rhytisma acerium. — Caen, 1874.
@@ -622,9 +887,43 @@
 Faits pour servir à l'histoire des mouvements chez les végétaux. — Caen, 1875.
 Sur un cas de Synanthie offert par le Digitalis purpurea. — Caen, 1873.
 Sur un cas tératologique offert par une hépatique (Frullania dilatata). — Revue bryologique. — 1877.
-Sur la formation des cloisons dans les stylospores des Hendersonia et des Pestalozzia. — Comptes rendus des séances de l'Académie des sciences. - Paris 1878.
-Botanique médicale
-Sur l'ergot des Glumacées des îles océaniques. — Bulletin de l'Académie de médecine, 1887.
+Sur la formation des cloisons dans les stylospores des Hendersonia et des Pestalozzia. — Comptes rendus des séances de l'Académie des sciences. - Paris 1878.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Botanique médicale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sur l'ergot des Glumacées des îles océaniques. — Bulletin de l'Académie de médecine, 1887.
 Contribution à l'étude de l'Otomycosis mucorinea. - Bulletin de l'Académie de médecine, 1892.
 Etude du Mucor corymbifer. — Bulletin de l'Académie de médecine, 1892.
 Contribution à l'étude de la Kératomycose aspergillaire. — Bulletin de l'Académie de médecine, 1892.
@@ -633,58 +932,162 @@
 Ruptures d'échafaudages dues à l'altération du bois par le Physisporus vaporarius. — Bulletin de l'Académie de médecine. — Paris, 1891.
 Altérations des bois de construction. — Tours, 1891.
 Logements insalubres, maisons et établissements publics contaminés par des saprophytes. — Bulletin de l'Académie de médecine. — Paris, 1893.
-Rapport à M. le préfet du Finistère sur l'étisie des châtaigniers du domaine de Keryolet (Finistère), Quimper : impr. de A. Jaouen , 1900
-Pathologie végétale
-Sur une altération des feuilles de l'lonidium Austro-Caledonicum. - Journal de Pharmacie et de Chimie. — Paris, 1873.
+Rapport à M. le préfet du Finistère sur l'étisie des châtaigniers du domaine de Keryolet (Finistère), Quimper : impr. de A. Jaouen , 1900</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pathologie végétale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sur une altération des feuilles de l'lonidium Austro-Caledonicum. - Journal de Pharmacie et de Chimie. — Paris, 1873.
 Du rôle des Dépazées en pathologie végétale. — Journal de Pharmacie et de Chimie. — Paris, 1874.
 Note sur un cas fréquent de destruction des feuilles chez l'Hedera hélix. — Caen, 1874.
 Effondrement d'un plancher neuf à Rennes, amené par le Physisporus vaporarius. — Bulletin de l'Académie de Médecine. - Paris, 1889.
 Les Altérations mycotiques des poteaux télégraphiques dans leurs rapports avec les accidents du travail, Rennes : impr. de F. Simon , 1896
 Altérations des poteaux télégraphiques. — Bulletin de l'Académie de Médecine. — Paris, 1890.
 Accidents dus à la décomposition des bois de construction. - Bulletin de l'Académie de médecine. — Paris, 1890.
-Altérations des bois de mines dans leurs rapports avec la sécurité des mineurs. — Bulletin de l'Académie de médecine. - Paris, 1890.
-Histoire des sciences
-Pierre Belon et l'anatomie comparée. — Pierre Belon et l'Ichtyologie. — Les voyages de Pierre Belon et l'Egypte au XVIe siècle. — Pierre Belon et l'histoire naturelle du Dauphin. — Pierre Belon et l'horticulture. — Pierre Belon et la nomenclature binaire. — Revue scientifique, 1882-1883.
-Souscription publique pour la statue de Pierre Belon du Mans, Le Mans : impr. Lebrault, [1884]
-Ouvrages généraux
-Nouveaux éléments de botanique fasc. I, Morphologie, anatomie, physiologie et biologie, 2e éd / Paris : Octave Doin , (1900)
+Altérations des bois de mines dans leurs rapports avec la sécurité des mineurs. — Bulletin de l'Académie de médecine. - Paris, 1890.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Histoire des sciences</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Belon et l'anatomie comparée. — Pierre Belon et l'Ichtyologie. — Les voyages de Pierre Belon et l'Egypte au XVIe siècle. — Pierre Belon et l'histoire naturelle du Dauphin. — Pierre Belon et l'horticulture. — Pierre Belon et la nomenclature binaire. — Revue scientifique, 1882-1883.
+Souscription publique pour la statue de Pierre Belon du Mans, Le Mans : impr. Lebrault, </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ouvrages généraux</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nouveaux éléments de botanique fasc. I, Morphologie, anatomie, physiologie et biologie, 2e éd / Paris : Octave Doin , (1900)
 Anatomie et physiologie végétales  : cours rédigé conformément aux programmes prescrits par l'arrêté du 2 août 1880 pour la classe de philosophie et les candidats au baccalauréat ès lettres, Paris : O. Doin , 1882
 Cours de botanique, organographie et familles naturelles, rédigé conformément aux programmes prescrits par l'arrêté du 2 août 1881 pour la classe de quatrième, les écoles normales primaires et les écoles d'agriculture , Paris : O. Doin , 1883
 Nouveaux éléments de botanique : pour les candidats au baccalauréat ès sciences et les élèves en médecine et en pharmacie : contenant l'organographie, l'anatomie, la morphologie, la physiologie : la botanique rurale (phanérogames et cryptogames) : et des notions de géographie botanique et de botanique fossil, Paris : Octave Doin , 1884
 Nouveaux éléments de botanique pour les candidats au certificat de botanique (Etudes supérieures) les étudiants en médecine et en pharmacie, Paris : Octave Doin , 1900-1902
 Nouveaux éléments de botanique : pour les candidats au certificat de botanique (études supérieures) : les étudiants en médecine et en pharmacie, les élèves des écoles d'agriculture : des écoles forestières et coloniales, etc., etc., 2e éd.rev. cor. et très augm. avec 1 197 figures dans le texte, Paris : Octave Doin , 1902
 Cours de botanique : organographie et familles naturelles : rédigé conformément aux nouveaux programmes por la classe de quatrième ..., 2e éd. / Paris : O. Doin , [1884?]
-Anatomie et physiologie végétales : cours rédigé conformément aux nouveaux programmes pour les candidats au baccalauréat ès lettres et au baccalauréat de l'enseignement spécial et les élèves des écoles normales, 2e éd. / Paris : O. Doin , [1885]
+Anatomie et physiologie végétales : cours rédigé conformément aux nouveaux programmes pour les candidats au baccalauréat ès lettres et au baccalauréat de l'enseignement spécial et les élèves des écoles normales, 2e éd. / Paris : O. Doin , 
 Anatomie et physiologie végétales : cours rédigé conformément aux nouveaux programmes pour les candidats au baccalaureat ès lettres…, 3e éd. / Paris : O. Doin , [1888?]
-Anatomie et physiologie végétales : Cours rédigé conformément aux nouveaux programmes, 4e éd. / Paris : Doin , [1902]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Louis_Cri%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Anatomie et physiologie végétales : Cours rédigé conformément aux nouveaux programmes, 4e éd. / Paris : Doin , </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Louis_Crié</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Cri%C3%A9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Lucien Daniel, Le professeur Louis Crié (Revue bretonne de Botanique, 1912).</t>
         </is>
